--- a/doc/MIG-Annex-F-MOR-List-v3.1.21.xlsx
+++ b/doc/MIG-Annex-F-MOR-List-v3.1.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehmer/Development/syncpoint.io/odin/develop/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6799DD13-A9F3-F343-AF26-A3D9A171CE41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559F5DF-EDE1-AC47-AF71-306767A0912F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{06C7698E-B7EB-F34B-83A5-94075FAFE53B}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{06C7698E-B7EB-F34B-83A5-94075FAFE53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1348">
   <si>
     <t>1.X.2</t>
   </si>
@@ -768,9 +768,6 @@
     <t>BOUNDARIES</t>
   </si>
   <si>
-    <t>EDIT</t>
-  </si>
-  <si>
     <t>SUPPORTED</t>
   </si>
   <si>
@@ -1095,9 +1092,6 @@
     <t>GLL---</t>
   </si>
   <si>
-    <t>CREATE</t>
-  </si>
-  <si>
     <t>2.X.2.2.3.2</t>
   </si>
   <si>
@@ -1638,9 +1632,6 @@
     <t>2.X.3.1.5.5</t>
   </si>
   <si>
-    <t>2.X.3.1.6</t>
-  </si>
-  <si>
     <t>2.X.3.1.6.1</t>
   </si>
   <si>
@@ -1770,15 +1761,6 @@
     <t>OMT---</t>
   </si>
   <si>
-    <t>DUMMY MINEFIELD (DYNAMIC)</t>
-  </si>
-  <si>
-    <t>PC----</t>
-  </si>
-  <si>
-    <t>MINEFIELDS</t>
-  </si>
-  <si>
     <t>MINEFIELDS/STATIC DEPICTION</t>
   </si>
   <si>
@@ -3495,12 +3477,6 @@
     <t>TACGRP.MOBSU.OBST.MNE.ATMNE</t>
   </si>
   <si>
-    <t>TACGRP.C2GM.DCPN.DMYMD</t>
-  </si>
-  <si>
-    <t>TACGRP.MOBSU.OBST.MNEFLD</t>
-  </si>
-  <si>
     <t>TACGRP.MOBSU.OBST.MNEFLD.STC</t>
   </si>
   <si>
@@ -4071,13 +4047,28 @@
     <t>1.X.2.1.2.10</t>
   </si>
   <si>
-    <t>MEDEV AC</t>
-  </si>
-  <si>
     <t>MHO---</t>
   </si>
   <si>
     <t>WAR.AIRTRK.MIL.ROT.MEDV</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ANTIPERSONNEL (AP) MINES</t>
+  </si>
+  <si>
+    <t>OMP---</t>
+  </si>
+  <si>
+    <t>TACGRP.MOBSU.OBST.MNE.APMNE</t>
+  </si>
+  <si>
+    <t>ROTARY WING/MEDEVAC</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -4170,7 +4161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4178,7 +4169,6 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
@@ -4201,7 +4191,6 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4230,6 +4219,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4544,10 +4536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6EA0FD-3B04-734A-B049-07FEB6596675}">
-  <dimension ref="A1:I279"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G281" sqref="G281"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4555,6335 +4547,6440 @@
     <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>750</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="22" t="s">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>750</v>
+      <c r="G1" s="20" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>249</v>
+      <c r="D2" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>250</v>
+      <c r="D3" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>251</v>
+      <c r="D4" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>252</v>
+      <c r="D5" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>253</v>
+      <c r="D6" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>254</v>
+      <c r="D7" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>255</v>
+      <c r="D8" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>256</v>
+      <c r="D9" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>257</v>
+      <c r="D10" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>258</v>
+      <c r="D11" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>259</v>
+      <c r="D12" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>1311</v>
+        <v>1301</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1303</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1318</v>
+        <v>1310</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>1315</v>
+        <v>1306</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>1307</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E18" s="24" t="s">
         <v>268</v>
       </c>
+      <c r="D18" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>267</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>288</v>
+      <c r="D24" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E25" s="24" t="s">
         <v>290</v>
       </c>
+      <c r="D25" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E26" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>300</v>
+        <v>293</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>1022</v>
+      <c r="D29" s="22" t="s">
+        <v>1016</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="F30" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>305</v>
+      <c r="D31" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>315</v>
+        <v>305</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>317</v>
+        <v>306</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>319</v>
+        <v>307</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>321</v>
+        <v>308</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>323</v>
+        <v>309</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E37" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>327</v>
+        <v>310</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>329</v>
+        <v>312</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E40" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>338</v>
+        <v>331</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>343</v>
+      <c r="D43" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>343</v>
+      <c r="D44" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E45" s="24" t="s">
+      <c r="D45" s="22" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>343</v>
+      <c r="D46" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>62</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E48" s="24" t="s">
+      <c r="D48" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B49" s="4"/>
+        <v>791</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1342</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>68</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="B50" s="4"/>
+        <v>792</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1342</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E50" s="24" t="s">
+      <c r="D50" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E51" s="24" t="s">
+      <c r="D51" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>73</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>76</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="D53" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E54" s="24" t="s">
+      <c r="D54" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>82</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E55" s="24" t="s">
+      <c r="D55" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E56" s="24" t="s">
+      <c r="D56" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>88</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E57" s="24" t="s">
+      <c r="D57" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E58" s="24" t="s">
+      <c r="D58" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E59" s="24" t="s">
+      <c r="D59" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E59" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E60" s="24" t="s">
+      <c r="D60" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>245</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>246</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D62" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>346</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>355</v>
+        <v>348</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E66" s="24" t="s">
+      <c r="D66" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>105</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E67" s="24" t="s">
+      <c r="D67" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>107</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E68" s="24" t="s">
+      <c r="D68" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>110</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E69" s="24" t="s">
+      <c r="D69" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>113</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>247</v>
+        <v>812</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E70" s="24" t="s">
+      <c r="D70" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E70" s="22" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>247</v>
+        <v>813</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E71" s="24" t="s">
+      <c r="D71" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>247</v>
+        <v>814</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E72" s="24" t="s">
+      <c r="D72" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>247</v>
+        <v>815</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E73" s="24" t="s">
+      <c r="D73" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>125</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>260</v>
+        <v>816</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E74" s="24" t="s">
+      <c r="D74" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E74" s="22" t="s">
         <v>128</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>260</v>
+        <v>817</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E75" s="24" t="s">
+      <c r="D75" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>131</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>247</v>
+        <v>818</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E76" s="24" t="s">
+      <c r="D76" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>134</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>247</v>
+        <v>819</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E77" s="24" t="s">
+      <c r="D77" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>137</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>247</v>
+        <v>820</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E78" s="24" t="s">
+      <c r="D78" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>140</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>247</v>
+        <v>821</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E79" s="24" t="s">
+      <c r="D79" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>143</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E80" s="24" t="s">
+      <c r="D80" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>146</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E81" s="24" t="s">
+      <c r="D81" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>149</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E82" s="24" t="s">
+      <c r="D82" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>152</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E83" s="24" t="s">
+      <c r="D83" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>155</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E84" s="24" t="s">
+      <c r="D84" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>158</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>260</v>
+        <v>827</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E85" s="24" t="s">
+      <c r="D85" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>161</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>162</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>260</v>
+        <v>829</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E87" s="24" t="s">
         <v>359</v>
       </c>
+      <c r="D87" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>357</v>
+      </c>
       <c r="F87" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>260</v>
+        <v>830</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>260</v>
+        <v>831</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="D89" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>367</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>260</v>
+        <v>832</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D90" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>370</v>
-      </c>
       <c r="F90" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>260</v>
+        <v>833</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D91" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>260</v>
+        <v>834</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E92" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>221</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E93" s="24" t="s">
+      <c r="D93" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>164</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>165</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E94" s="24" t="s">
+      <c r="D94" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>167</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>168</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E95" s="24" t="s">
+      <c r="D95" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E95" s="22" t="s">
         <v>171</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E96" s="24" t="s">
+      <c r="D96" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E96" s="22" t="s">
         <v>173</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>174</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>260</v>
+        <v>839</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E97" s="24" t="s">
+      <c r="D97" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E97" s="22" t="s">
         <v>182</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E98" s="24" t="s">
+      <c r="D98" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>179</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>180</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>260</v>
+        <v>841</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E99" s="24" t="s">
+      <c r="D99" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>176</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>177</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>375</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
-        <v>849</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E101" s="19" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E101" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>1126</v>
+      <c r="F101" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>260</v>
+        <v>844</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>385</v>
+        <v>376</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>260</v>
+        <v>845</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D103" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
-        <v>852</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>1129</v>
+      <c r="G104" s="16" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>260</v>
+        <v>847</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D105" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>390</v>
-      </c>
       <c r="F105" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>397</v>
+        <v>389</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>395</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>260</v>
+        <v>849</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>399</v>
+        <v>390</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>260</v>
+        <v>850</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>401</v>
+        <v>391</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>399</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>403</v>
+        <v>851</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>405</v>
+        <v>852</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E111" s="24" t="s">
+      <c r="D111" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>185</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G112" s="1" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E114" s="24" t="s">
+      <c r="D114" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>189</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E115" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="D115" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>414</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E116" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="D116" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>417</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>260</v>
+        <v>859</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D117" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="G117" s="1" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>423</v>
+        <v>417</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>421</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D119" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E119" s="24" t="s">
+      <c r="D119" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E119" s="22" t="s">
         <v>191</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>192</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E120" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="D120" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>426</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>356</v>
+        <v>1342</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E121" s="24" t="s">
+      <c r="D121" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E121" s="22" t="s">
         <v>194</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>195</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>356</v>
+        <v>1342</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D122" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E122" s="24" t="s">
+      <c r="D122" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E122" s="22" t="s">
         <v>197</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>198</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>565</v>
+        <v>259</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>562</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>567</v>
+        <v>259</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D125" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>569</v>
+        <v>259</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>566</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>572</v>
+        <v>259</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>569</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>574</v>
+        <v>259</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>571</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>575</v>
+        <v>1342</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>572</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>578</v>
+        <v>1342</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>575</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>580</v>
+        <v>1342</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>577</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>582</v>
+        <v>1342</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>1344</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>581</v>
+        <v>1343</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
-        <v>880</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E132" s="19" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="D132" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F132" s="17" t="s">
-        <v>583</v>
+        <v>60</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>1157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>584</v>
+        <v>1342</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>578</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>587</v>
+        <v>259</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>581</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>589</v>
+        <v>1342</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>583</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>590</v>
+        <v>259</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>584</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>591</v>
+        <v>259</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>585</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>593</v>
+        <v>259</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>587</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>594</v>
+        <v>259</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>588</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>596</v>
+        <v>1342</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>590</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>598</v>
+        <v>259</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>592</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E142" s="24" t="s">
-        <v>600</v>
+        <v>259</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>594</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E143" s="24" t="s">
-        <v>602</v>
+        <v>259</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E143" s="22" t="s">
+        <v>596</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E144" s="24" t="s">
-        <v>604</v>
+        <v>259</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>598</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>606</v>
+        <v>259</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>600</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E146" s="24" t="s">
-        <v>608</v>
+        <v>259</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>610</v>
+        <v>259</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>604</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E148" s="24" t="s">
-        <v>612</v>
+        <v>259</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>606</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="D149" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>614</v>
+        <v>259</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>608</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>616</v>
+        <v>259</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>610</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>617</v>
+        <v>259</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>611</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E152" s="24" t="s">
-        <v>620</v>
+        <v>259</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>614</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>622</v>
+        <v>259</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>616</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E154" s="24" t="s">
-        <v>624</v>
+        <v>259</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>618</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>624</v>
+        <v>259</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E155" s="22" t="s">
+        <v>618</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E156" s="24" t="s">
-        <v>627</v>
+        <v>259</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>621</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>629</v>
+        <v>259</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>623</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E158" s="24" t="s">
-        <v>631</v>
+        <v>259</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>625</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="D159" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>633</v>
+        <v>259</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E159" s="22" t="s">
+        <v>627</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>247</v>
+        <v>902</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>1342</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D160" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E160" s="24" t="s">
+      <c r="D160" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E160" s="22" t="s">
         <v>200</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>247</v>
+        <v>903</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>1342</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D161" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E161" s="24" t="s">
+      <c r="D161" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E161" s="22" t="s">
         <v>242</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>243</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>247</v>
+        <v>904</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>1342</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D162" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E162" s="24" t="s">
+      <c r="D162" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E162" s="22" t="s">
         <v>203</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D163" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E163" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="G163" s="1" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D164" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E164" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="G164" s="1" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E165" s="24" t="s">
-        <v>441</v>
+        <v>435</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E165" s="22" t="s">
+        <v>439</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E166" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D166" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E166" s="24" t="s">
-        <v>444</v>
-      </c>
       <c r="F166" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E167" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="D167" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>447</v>
-      </c>
       <c r="F167" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D168" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E168" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="G168" s="1" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E169" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="D169" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E169" s="24" t="s">
-        <v>453</v>
-      </c>
       <c r="F169" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="F170" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D170" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E170" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="G170" s="1" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D171" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E171" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="G171" s="1" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>247</v>
+        <v>914</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>1342</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D172" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E172" s="24" t="s">
+      <c r="D172" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E172" s="22" t="s">
         <v>230</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C173" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E173" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D173" s="20" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>483</v>
-      </c>
       <c r="F173" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E174" s="24" t="s">
-        <v>485</v>
+        <v>916</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>483</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="D175" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E175" s="24" t="s">
-        <v>487</v>
+        <v>917</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E175" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="D176" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E176" s="24" t="s">
-        <v>489</v>
+        <v>918</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E176" s="22" t="s">
+        <v>487</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D177" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E177" s="24" t="s">
-        <v>491</v>
+        <v>919</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E177" s="22" t="s">
+        <v>489</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="D178" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E178" s="24" t="s">
-        <v>493</v>
+        <v>259</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E179" s="24" t="s">
-        <v>495</v>
+        <v>259</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E179" s="22" t="s">
+        <v>493</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="D180" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E180" s="24" t="s">
-        <v>497</v>
+        <v>259</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>495</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E181" s="24" t="s">
-        <v>499</v>
+        <v>259</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E181" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E182" s="24" t="s">
-        <v>501</v>
+        <v>259</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E182" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="D183" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E183" s="24" t="s">
-        <v>503</v>
+        <v>1342</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E183" s="22" t="s">
+        <v>501</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E184" s="24" t="s">
-        <v>505</v>
+        <v>259</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>503</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>507</v>
+        <v>1342</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E185" s="22" t="s">
+        <v>505</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E186" s="24" t="s">
-        <v>509</v>
+        <v>259</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>507</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>511</v>
+        <v>259</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E187" s="22" t="s">
+        <v>509</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>513</v>
+        <v>1342</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>515</v>
+        <v>259</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E190" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>516</v>
+        <v>1342</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>514</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="D191" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E191" s="24" t="s">
-        <v>519</v>
+        <v>259</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>517</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E192" s="24" t="s">
-        <v>521</v>
+        <v>259</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>519</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="D193" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E193" s="24" t="s">
-        <v>523</v>
+        <v>259</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C194" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C194" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D194" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E194" s="24" t="s">
-        <v>525</v>
+      <c r="D194" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="D195" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E195" s="24" t="s">
-        <v>527</v>
+        <v>259</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E195" s="22" t="s">
+        <v>525</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D196" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E196" s="24" t="s">
+      <c r="D196" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E196" s="22" t="s">
         <v>206</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D197" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E197" s="24" t="s">
+      <c r="D197" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E197" s="22" t="s">
         <v>209</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>210</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D198" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E198" s="24" t="s">
+      <c r="D198" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E198" s="22" t="s">
         <v>212</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D199" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E199" s="24" t="s">
+      <c r="D199" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E199" s="22" t="s">
         <v>215</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>216</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D200" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E200" s="24" t="s">
+      <c r="D200" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E200" s="22" t="s">
         <v>218</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>219</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D201" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E201" s="24" t="s">
+      <c r="D201" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E201" s="22" t="s">
         <v>221</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D202" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E202" s="24" t="s">
+      <c r="D202" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E202" s="22" t="s">
         <v>224</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="B203" s="15"/>
+        <v>945</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1342</v>
+      </c>
       <c r="C203" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E203" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D203" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E203" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="G203" s="1" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="B204" s="15"/>
+        <v>946</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1342</v>
+      </c>
       <c r="C204" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E204" s="24" t="s">
-        <v>432</v>
+        <v>429</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E204" s="22" t="s">
+        <v>430</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D205" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E205" s="24" t="s">
+      <c r="D205" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E205" s="22" t="s">
         <v>233</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>234</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D206" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E206" s="24" t="s">
+      <c r="D206" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E206" s="22" t="s">
         <v>236</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D207" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E207" s="24" t="s">
+      <c r="D207" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E207" s="22" t="s">
         <v>239</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D208" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E208" s="24" t="s">
+      <c r="D208" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E208" s="22" t="s">
         <v>227</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>228</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="D209" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E209" s="24" t="s">
-        <v>677</v>
+        <v>259</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>671</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="D210" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E210" s="24" t="s">
-        <v>679</v>
+        <v>259</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="D211" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E211" s="24" t="s">
-        <v>681</v>
+        <v>259</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>675</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C212" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="D212" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E212" s="24" t="s">
-        <v>683</v>
+        <v>259</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E212" s="22" t="s">
+        <v>677</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C213" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="D213" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E213" s="24" t="s">
-        <v>685</v>
+        <v>259</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>679</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="D214" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E214" s="24" t="s">
-        <v>687</v>
+        <v>259</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>681</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C215" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="D215" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E215" s="24" t="s">
-        <v>675</v>
+        <v>1342</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>669</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="D216" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E216" s="24" t="s">
-        <v>673</v>
+        <v>1342</v>
+      </c>
+      <c r="C216" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>667</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="D217" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E217" s="24" t="s">
-        <v>671</v>
+        <v>1342</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E217" s="22" t="s">
+        <v>665</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="D218" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E218" s="24" t="s">
-        <v>668</v>
+        <v>1342</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>662</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="D219" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E219" s="24" t="s">
-        <v>667</v>
+        <v>1342</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E219" s="22" t="s">
+        <v>661</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="D220" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E220" s="24" t="s">
-        <v>665</v>
+        <v>1342</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>659</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C221" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="D221" s="20" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E221" s="24" t="s">
-        <v>663</v>
+        <v>963</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C222" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="D222" s="27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E222" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="F222" s="15" t="s">
-        <v>660</v>
+        <v>1342</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="D222" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>654</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E223" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="F223" s="15" t="s">
-        <v>658</v>
+        <v>1342</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="D223" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E223" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>652</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="C224" s="20"/>
-      <c r="D224" s="20"/>
+        <v>966</v>
+      </c>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
       <c r="F224" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E225" s="24" t="s">
-        <v>656</v>
-      </c>
-      <c r="F225" s="15" t="s">
-        <v>654</v>
+        <v>1342</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D225" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E225" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C226" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D226" s="20" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E226" s="24" t="s">
+      <c r="D226" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E226" s="22" t="s">
         <v>227</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>228</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E227" s="24" t="s">
-        <v>650</v>
+        <v>1342</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="D227" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E227" s="22" t="s">
+        <v>644</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D228" s="25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E228" s="22" t="s">
         <v>1319</v>
       </c>
-      <c r="C228" s="20" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D228" s="27" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E228" s="24" t="s">
-        <v>1327</v>
-      </c>
       <c r="F228" s="1" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D229" s="27" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E229" s="24" t="s">
-        <v>1330</v>
+        <v>1312</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D229" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E229" s="22" t="s">
+        <v>1322</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C230" s="20" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D230" s="27" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E230" s="24" t="s">
-        <v>1334</v>
+        <v>1313</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D230" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E230" s="22" t="s">
+        <v>1326</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D231" s="27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E231" s="24" t="s">
-        <v>1338</v>
+        <v>1314</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D231" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E231" s="22" t="s">
+        <v>1330</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C232" s="20"/>
-      <c r="D232" s="27"/>
+        <v>1315</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C232" s="18"/>
+      <c r="D232" s="25"/>
       <c r="F232" s="1" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D233" s="27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E233" s="24" t="s">
-        <v>650</v>
+        <v>1316</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D233" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>644</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="D234" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E234" s="24" t="s">
-        <v>298</v>
+        <v>1342</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E234" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D235" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E235" s="24" t="s">
-        <v>715</v>
+        <v>1342</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E235" s="22" t="s">
+        <v>709</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="C236" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C236" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D236" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E236" s="24" t="s">
-        <v>716</v>
+      <c r="D236" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E236" s="22" t="s">
+        <v>710</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C237" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C237" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D237" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E237" s="24" t="s">
-        <v>718</v>
+      <c r="D237" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E237" s="22" t="s">
+        <v>712</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="C238" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C238" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D238" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E238" s="24" t="s">
-        <v>721</v>
+      <c r="D238" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E238" s="22" t="s">
+        <v>715</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="D239" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E239" s="24" t="s">
-        <v>262</v>
+        <v>1342</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E239" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D240" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E240" s="24" t="s">
-        <v>272</v>
+        <v>1342</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E240" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="D241" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E241" s="24" t="s">
-        <v>288</v>
+        <v>1342</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E241" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="D242" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E242" s="24" t="s">
-        <v>323</v>
+        <v>1342</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="D242" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E242" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="D243" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E243" s="24" t="s">
-        <v>317</v>
+        <v>1342</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E243" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="D244" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E244" s="24" t="s">
-        <v>317</v>
+        <v>1342</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E244" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>696</v>
+        <v>1342</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>690</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E245" s="24" t="s">
-        <v>288</v>
+        <v>1023</v>
+      </c>
+      <c r="E245" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>697</v>
+        <v>1342</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>691</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E246" s="24" t="s">
-        <v>715</v>
+        <v>1023</v>
+      </c>
+      <c r="E246" s="22" t="s">
+        <v>709</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E247" s="24" t="s">
-        <v>272</v>
+        <v>1342</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="D247" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E247" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="D248" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E248" s="24" t="s">
-        <v>323</v>
+        <v>1342</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E248" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="D249" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E249" s="24" t="s">
-        <v>315</v>
+        <v>985</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D249" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E249" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E250" s="24" t="s">
-        <v>303</v>
+        <v>1342</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="D250" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E250" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D251" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E251" s="24" t="s">
-        <v>734</v>
+        <v>1342</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E251" s="22" t="s">
+        <v>728</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="D252" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E252" s="24" t="s">
-        <v>736</v>
+        <v>1342</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="D252" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E252" s="22" t="s">
+        <v>730</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D253" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E253" s="24" t="s">
-        <v>737</v>
+        <v>1342</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="D253" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E253" s="22" t="s">
+        <v>731</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D254" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E254" s="24" t="s">
-        <v>280</v>
+        <v>1342</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="D254" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E254" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="D255" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E255" s="24" t="s">
-        <v>298</v>
+        <v>1342</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D255" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E255" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="D256" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E256" s="24" t="s">
-        <v>742</v>
+        <v>1342</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="D256" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E256" s="22" t="s">
+        <v>736</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="D257" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E257" s="24" t="s">
-        <v>319</v>
+        <v>993</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D257" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E257" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="D258" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E258" s="24" t="s">
-        <v>745</v>
+        <v>994</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="D258" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E258" s="22" t="s">
+        <v>739</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="D259" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E259" s="24" t="s">
-        <v>747</v>
+        <v>1342</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="D259" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E259" s="22" t="s">
+        <v>741</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="D260" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E260" s="24" t="s">
-        <v>288</v>
+        <v>996</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="D260" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E260" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="D261" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E261" s="24" t="s">
-        <v>295</v>
+        <v>997</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="D261" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E261" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D262" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E262" s="24" t="s">
-        <v>249</v>
+      <c r="D262" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D263" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E263" s="24" t="s">
-        <v>249</v>
+      <c r="D263" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E263" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D264" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E264" s="24" t="s">
-        <v>1295</v>
+      <c r="D264" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E264" s="22" t="s">
+        <v>1287</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E265" s="24" t="s">
-        <v>268</v>
+      <c r="D265" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E265" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D266" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E266" s="24" t="s">
-        <v>1296</v>
+      <c r="D266" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E266" s="22" t="s">
+        <v>1288</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D267" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E267" s="24" t="s">
-        <v>1297</v>
+      <c r="D267" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E267" s="22" t="s">
+        <v>1289</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D268" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E268" s="24" t="s">
-        <v>1298</v>
+      <c r="D268" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E268" s="22" t="s">
+        <v>1290</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D269" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E269" s="24" t="s">
-        <v>1299</v>
+      <c r="D269" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E269" s="22" t="s">
+        <v>1291</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D270" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E270" s="24" t="s">
-        <v>1300</v>
+      <c r="D270" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E270" s="22" t="s">
+        <v>1292</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D271" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E271" s="24" t="s">
-        <v>1301</v>
+      <c r="D271" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E271" s="22" t="s">
+        <v>1293</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D272" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E272" s="24" t="s">
-        <v>1302</v>
+      <c r="D272" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E272" s="22" t="s">
+        <v>1294</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D273" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E273" s="24" t="s">
-        <v>1303</v>
+      <c r="D273" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E273" s="22" t="s">
+        <v>1295</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D274" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E274" s="24" t="s">
-        <v>1304</v>
+      <c r="D274" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E274" s="22" t="s">
+        <v>1296</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B275" s="15"/>
+        <v>1011</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1342</v>
+      </c>
       <c r="C275" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D275" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E275" s="24" t="s">
-        <v>1305</v>
+      <c r="D275" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E275" s="22" t="s">
+        <v>1297</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D276" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E276" s="24" t="s">
-        <v>1306</v>
+      <c r="D276" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E276" s="22" t="s">
+        <v>1298</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D277" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E277" s="24" t="s">
-        <v>1307</v>
+      <c r="D277" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E277" s="22" t="s">
+        <v>1299</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>247</v>
+        <v>1342</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D278" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E278" s="24" t="s">
-        <v>1308</v>
+      <c r="D278" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E278" s="22" t="s">
+        <v>1300</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D279" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E279" s="22" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F279" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="G279" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B281" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B282" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C282" s="31">
+        <f>COUNTIF(B2:B279,"YES")</f>
+        <v>195</v>
+      </c>
+      <c r="D282" s="32">
+        <f>C282/C284</f>
+        <v>0.71167883211678828</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B283" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C283" s="31">
+        <f>COUNTIF(B2:B279,"NO")</f>
+        <v>79</v>
+      </c>
+      <c r="D283" s="32">
+        <f>C283/C284</f>
+        <v>0.28832116788321166</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B284" s="20" t="s">
         <v>1347</v>
       </c>
-      <c r="D279" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E279" s="24" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>1350</v>
+      <c r="C284" s="33">
+        <f>C283+C282</f>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/doc/MIG-Annex-F-MOR-List-v3.1.21.xlsx
+++ b/doc/MIG-Annex-F-MOR-List-v3.1.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehmer/Development/syncpoint.io/odin/develop/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F559F5DF-EDE1-AC47-AF71-306767A0912F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDAB438-D60D-6049-9D17-0DCCC71E564A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{06C7698E-B7EB-F34B-83A5-94075FAFE53B}"/>
+    <workbookView xWindow="51200" yWindow="6880" windowWidth="33600" windowHeight="21000" xr2:uid="{06C7698E-B7EB-F34B-83A5-94075FAFE53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1350">
   <si>
     <t>1.X.2</t>
   </si>
@@ -1179,12 +1179,6 @@
     <t>MAIN ATTACK</t>
   </si>
   <si>
-    <t>DIRECTION OF ATTACK</t>
-  </si>
-  <si>
-    <t>2.X.2.5.2.2</t>
-  </si>
-  <si>
     <t>2.X.2.5.2.3</t>
   </si>
   <si>
@@ -3390,15 +3384,6 @@
     <t>TACGRP.C2GM.OFF.LNE.AXSADV</t>
   </si>
   <si>
-    <t>TACGRP.C2GM.OFF.LNE.AXSADV.GRD.MANATK.</t>
-  </si>
-  <si>
-    <t>TACGRP.C2GM.OFF.LNE.AXSADV.GRD.SUPATK.</t>
-  </si>
-  <si>
-    <t>TACGRP.C2GM.OFF.LNE.DIRATK</t>
-  </si>
-  <si>
     <t>TACGRP.C2GM.OFF.LNE.FCL</t>
   </si>
   <si>
@@ -4069,6 +4054,27 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DIRECTION OF MAIN ATTACK (GROUND)</t>
+  </si>
+  <si>
+    <t>G*GP</t>
+  </si>
+  <si>
+    <t>OLKGM-</t>
+  </si>
+  <si>
+    <t>2.X.2.5.2.2.2.1</t>
+  </si>
+  <si>
+    <t>TACGRP.C2GM.OFF.LNE.DIRATK.GRD.MANATK</t>
+  </si>
+  <si>
+    <t>TACGRP.C2GM.OFF.LNE.AXSADV.GRD.MANATK</t>
+  </si>
+  <si>
+    <t>TACGRP.C2GM.OFF.LNE.AXSADV.GRD.SUPATK</t>
   </si>
 </sst>
 </file>
@@ -4161,7 +4167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4222,6 +4228,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4538,8 +4547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6EA0FD-3B04-734A-B049-07FEB6596675}">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4550,7 +4559,7 @@
     <col min="4" max="4" width="8.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -4559,31 +4568,31 @@
         <v>247</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>248</v>
@@ -4592,21 +4601,21 @@
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>249</v>
@@ -4615,21 +4624,21 @@
         <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>250</v>
@@ -4638,21 +4647,21 @@
         <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>251</v>
@@ -4661,21 +4670,21 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>252</v>
@@ -4684,21 +4693,21 @@
         <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>253</v>
@@ -4707,21 +4716,21 @@
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>254</v>
@@ -4730,21 +4739,21 @@
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>255</v>
@@ -4753,21 +4762,21 @@
         <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>256</v>
@@ -4776,21 +4785,21 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>257</v>
@@ -4799,21 +4808,21 @@
         <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>258</v>
@@ -4822,67 +4831,67 @@
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>261</v>
@@ -4891,21 +4900,21 @@
         <v>262</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>264</v>
@@ -4914,21 +4923,21 @@
         <v>265</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>271</v>
@@ -4937,21 +4946,21 @@
         <v>269</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>267</v>
@@ -4960,21 +4969,21 @@
         <v>270</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>274</v>
@@ -4983,21 +4992,21 @@
         <v>273</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>277</v>
@@ -5006,21 +5015,21 @@
         <v>276</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>279</v>
@@ -5029,21 +5038,21 @@
         <v>280</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>283</v>
@@ -5052,21 +5061,21 @@
         <v>282</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>286</v>
@@ -5075,21 +5084,21 @@
         <v>285</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>287</v>
@@ -5098,21 +5107,21 @@
         <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>289</v>
@@ -5121,21 +5130,21 @@
         <v>288</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>294</v>
@@ -5144,12 +5153,12 @@
         <v>295</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>259</v>
@@ -5158,7 +5167,7 @@
         <v>292</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>297</v>
@@ -5167,12 +5176,12 @@
         <v>296</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>259</v>
@@ -5181,7 +5190,7 @@
         <v>293</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>299</v>
@@ -5190,21 +5199,21 @@
         <v>298</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>300</v>
@@ -5213,21 +5222,21 @@
         <v>55</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>302</v>
@@ -5236,21 +5245,21 @@
         <v>303</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>304</v>
@@ -5259,21 +5268,21 @@
         <v>57</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>314</v>
@@ -5282,21 +5291,21 @@
         <v>313</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>316</v>
@@ -5305,21 +5314,21 @@
         <v>315</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>318</v>
@@ -5328,21 +5337,21 @@
         <v>317</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>320</v>
@@ -5351,21 +5360,21 @@
         <v>319</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>322</v>
@@ -5374,21 +5383,21 @@
         <v>321</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>323</v>
@@ -5397,21 +5406,21 @@
         <v>324</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>326</v>
@@ -5420,21 +5429,21 @@
         <v>325</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>328</v>
@@ -5443,21 +5452,21 @@
         <v>327</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>329</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>332</v>
@@ -5466,21 +5475,21 @@
         <v>333</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>335</v>
@@ -5489,21 +5498,21 @@
         <v>334</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>337</v>
@@ -5512,21 +5521,21 @@
         <v>336</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>342</v>
@@ -5535,21 +5544,21 @@
         <v>338</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>342</v>
@@ -5558,21 +5567,21 @@
         <v>339</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>61</v>
@@ -5581,21 +5590,21 @@
         <v>340</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>342</v>
@@ -5604,21 +5613,21 @@
         <v>341</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>62</v>
@@ -5627,21 +5636,21 @@
         <v>63</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>65</v>
@@ -5650,21 +5659,21 @@
         <v>66</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>68</v>
@@ -5673,21 +5682,21 @@
         <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>71</v>
@@ -5696,21 +5705,21 @@
         <v>102</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>73</v>
@@ -5719,21 +5728,21 @@
         <v>74</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>76</v>
@@ -5742,21 +5751,21 @@
         <v>77</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>79</v>
@@ -5765,21 +5774,21 @@
         <v>80</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>82</v>
@@ -5788,21 +5797,21 @@
         <v>83</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E55" s="22" t="s">
         <v>85</v>
@@ -5811,21 +5820,21 @@
         <v>86</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>88</v>
@@ -5834,21 +5843,21 @@
         <v>89</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>91</v>
@@ -5857,21 +5866,21 @@
         <v>92</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>94</v>
@@ -5880,21 +5889,21 @@
         <v>95</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>97</v>
@@ -5903,21 +5912,21 @@
         <v>98</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>100</v>
@@ -5926,21 +5935,21 @@
         <v>101</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>245</v>
@@ -5949,21 +5958,21 @@
         <v>246</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>345</v>
@@ -5972,12 +5981,12 @@
         <v>343</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>259</v>
@@ -5986,7 +5995,7 @@
         <v>346</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>350</v>
@@ -5995,21 +6004,21 @@
         <v>349</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E64" s="22" t="s">
         <v>352</v>
@@ -6018,21 +6027,21 @@
         <v>351</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>354</v>
@@ -6041,21 +6050,21 @@
         <v>353</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E66" s="22" t="s">
         <v>105</v>
@@ -6064,21 +6073,21 @@
         <v>104</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>107</v>
@@ -6087,21 +6096,21 @@
         <v>108</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E68" s="22" t="s">
         <v>110</v>
@@ -6110,12 +6119,12 @@
         <v>111</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>259</v>
@@ -6124,7 +6133,7 @@
         <v>112</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>113</v>
@@ -6133,21 +6142,21 @@
         <v>114</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>116</v>
@@ -6156,21 +6165,21 @@
         <v>117</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>119</v>
@@ -6179,21 +6188,21 @@
         <v>120</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>122</v>
@@ -6202,21 +6211,21 @@
         <v>123</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>125</v>
@@ -6225,21 +6234,21 @@
         <v>126</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>128</v>
@@ -6248,21 +6257,21 @@
         <v>129</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E75" s="22" t="s">
         <v>131</v>
@@ -6271,21 +6280,21 @@
         <v>132</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>134</v>
@@ -6294,21 +6303,21 @@
         <v>133</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E77" s="22" t="s">
         <v>137</v>
@@ -6317,21 +6326,21 @@
         <v>138</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>140</v>
@@ -6340,21 +6349,21 @@
         <v>141</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>143</v>
@@ -6363,12 +6372,12 @@
         <v>144</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>259</v>
@@ -6377,7 +6386,7 @@
         <v>145</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E80" s="22" t="s">
         <v>146</v>
@@ -6386,12 +6395,12 @@
         <v>147</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>259</v>
@@ -6400,7 +6409,7 @@
         <v>148</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>149</v>
@@ -6409,12 +6418,12 @@
         <v>150</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>259</v>
@@ -6423,7 +6432,7 @@
         <v>151</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>152</v>
@@ -6432,12 +6441,12 @@
         <v>153</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>259</v>
@@ -6446,7 +6455,7 @@
         <v>154</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>155</v>
@@ -6455,12 +6464,12 @@
         <v>156</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>259</v>
@@ -6469,7 +6478,7 @@
         <v>157</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>158</v>
@@ -6478,21 +6487,21 @@
         <v>159</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>161</v>
@@ -6501,46 +6510,46 @@
         <v>162</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>355</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>356</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E87" s="22" t="s">
         <v>357</v>
@@ -6549,21 +6558,21 @@
         <v>358</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>361</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E88" s="22" t="s">
         <v>362</v>
@@ -6572,21 +6581,21 @@
         <v>360</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>363</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E89" s="22" t="s">
         <v>365</v>
@@ -6595,21 +6604,21 @@
         <v>364</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>366</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E90" s="22" t="s">
         <v>368</v>
@@ -6618,12 +6627,12 @@
         <v>367</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>259</v>
@@ -6632,7 +6641,7 @@
         <v>369</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E91" s="22" t="s">
         <v>370</v>
@@ -6641,12 +6650,12 @@
         <v>371</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>259</v>
@@ -6655,7 +6664,7 @@
         <v>372</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E92" s="22" t="s">
         <v>221</v>
@@ -6664,21 +6673,21 @@
         <v>373</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E93" s="22" t="s">
         <v>164</v>
@@ -6687,21 +6696,21 @@
         <v>165</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E94" s="22" t="s">
         <v>167</v>
@@ -6710,21 +6719,21 @@
         <v>168</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E95" s="22" t="s">
         <v>171</v>
@@ -6733,21 +6742,21 @@
         <v>170</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E96" s="22" t="s">
         <v>173</v>
@@ -6756,21 +6765,21 @@
         <v>174</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E97" s="22" t="s">
         <v>182</v>
@@ -6779,12 +6788,12 @@
         <v>183</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>259</v>
@@ -6793,7 +6802,7 @@
         <v>178</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E98" s="22" t="s">
         <v>179</v>
@@ -6802,21 +6811,21 @@
         <v>180</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>176</v>
@@ -6825,21 +6834,21 @@
         <v>177</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E100" s="22" t="s">
         <v>375</v>
@@ -6848,18 +6857,18 @@
         <v>111</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>379</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>60</v>
@@ -6868,21 +6877,21 @@
         <v>378</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E102" s="22" t="s">
         <v>377</v>
@@ -6891,21 +6900,21 @@
         <v>383</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1121</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>380</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E103" s="22" t="s">
         <v>381</v>
@@ -6914,179 +6923,179 @@
         <v>382</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="s">
-        <v>846</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>1123</v>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="D105" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>388</v>
-      </c>
       <c r="F105" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E111" s="22" t="s">
         <v>185</v>
@@ -7095,67 +7104,67 @@
         <v>186</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D112" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="G112" s="1" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E114" s="22" t="s">
         <v>188</v>
@@ -7164,113 +7173,113 @@
         <v>189</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E115" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="D115" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>412</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E116" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="D116" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>415</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D117" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="G117" s="1" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E119" s="22" t="s">
         <v>191</v>
@@ -7279,44 +7288,44 @@
         <v>192</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E120" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="D120" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>424</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E121" s="22" t="s">
         <v>194</v>
@@ -7325,21 +7334,21 @@
         <v>195</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E122" s="22" t="s">
         <v>197</v>
@@ -7348,219 +7357,219 @@
         <v>198</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>60</v>
@@ -7580,637 +7589,637 @@
     </row>
     <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>295</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>288</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E160" s="22" t="s">
         <v>200</v>
@@ -8219,21 +8228,21 @@
         <v>201</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E161" s="22" t="s">
         <v>242</v>
@@ -8242,21 +8251,21 @@
         <v>243</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E162" s="22" t="s">
         <v>203</v>
@@ -8265,228 +8274,228 @@
         <v>204</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D163" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="G163" s="1" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D164" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E164" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="G164" s="1" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E166" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="D166" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>442</v>
-      </c>
       <c r="F166" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E167" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="D167" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>445</v>
-      </c>
       <c r="F167" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D168" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="G168" s="1" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E169" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="D169" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>451</v>
-      </c>
       <c r="F169" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="F170" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D170" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>454</v>
-      </c>
       <c r="G170" s="1" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D171" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E171" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="G171" s="1" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E172" s="22" t="s">
         <v>230</v>
@@ -8495,495 +8504,495 @@
         <v>231</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C173" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E173" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="D173" s="18" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E173" s="22" t="s">
-        <v>481</v>
-      </c>
       <c r="F173" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>259</v>
@@ -8992,53 +9001,53 @@
         <v>60</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E196" s="22" t="s">
         <v>206</v>
@@ -9047,21 +9056,21 @@
         <v>207</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E197" s="22" t="s">
         <v>209</v>
@@ -9070,21 +9079,21 @@
         <v>210</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E198" s="22" t="s">
         <v>212</v>
@@ -9093,21 +9102,21 @@
         <v>213</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E199" s="22" t="s">
         <v>215</v>
@@ -9116,21 +9125,21 @@
         <v>216</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E200" s="22" t="s">
         <v>218</v>
@@ -9139,21 +9148,21 @@
         <v>219</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E201" s="22" t="s">
         <v>221</v>
@@ -9162,21 +9171,21 @@
         <v>222</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E202" s="22" t="s">
         <v>224</v>
@@ -9185,67 +9194,67 @@
         <v>225</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E203" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D203" s="22" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E203" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="G203" s="1" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E205" s="22" t="s">
         <v>233</v>
@@ -9254,21 +9263,21 @@
         <v>234</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E206" s="22" t="s">
         <v>236</v>
@@ -9277,21 +9286,21 @@
         <v>237</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E207" s="22" t="s">
         <v>239</v>
@@ -9300,21 +9309,21 @@
         <v>240</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E208" s="22" t="s">
         <v>227</v>
@@ -9323,399 +9332,399 @@
         <v>228</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D212" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D213" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D214" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C219" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="18"/>
       <c r="F224" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>226</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E226" s="22" t="s">
         <v>227</v>
@@ -9724,127 +9733,127 @@
         <v>228</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C227" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="D227" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E227" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D227" s="25" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E227" s="22" t="s">
+      <c r="G227" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>259</v>
@@ -9852,691 +9861,691 @@
       <c r="C232" s="18"/>
       <c r="D232" s="25"/>
       <c r="F232" s="1" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E234" s="22" t="s">
         <v>297</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E239" s="22" t="s">
         <v>261</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E240" s="22" t="s">
         <v>271</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E241" s="22" t="s">
         <v>287</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E242" s="22" t="s">
         <v>322</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D243" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E243" s="22" t="s">
         <v>316</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E244" s="22" t="s">
         <v>316</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E245" s="22" t="s">
         <v>287</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E247" s="22" t="s">
         <v>271</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E248" s="22" t="s">
         <v>322</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D249" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E249" s="22" t="s">
         <v>314</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E250" s="22" t="s">
         <v>302</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E254" s="22" t="s">
         <v>279</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E255" s="22" t="s">
         <v>297</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E257" s="22" t="s">
         <v>318</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E260" s="22" t="s">
         <v>287</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E261" s="22" t="s">
         <v>294</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D262" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E262" s="22" t="s">
         <v>248</v>
@@ -10545,21 +10554,21 @@
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E263" s="22" t="s">
         <v>248</v>
@@ -10568,44 +10577,44 @@
         <v>1</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E265" s="22" t="s">
         <v>267</v>
@@ -10614,329 +10623,329 @@
         <v>5</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D271" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D272" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D273" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D274" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D275" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D278" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E278" s="22" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="D279" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E279" s="22" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -10946,7 +10955,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C282" s="31">
         <f>COUNTIF(B2:B279,"YES")</f>
@@ -10972,7 +10981,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B284" s="20" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="C284" s="33">
         <f>C283+C282</f>

--- a/doc/MIG-Annex-F-MOR-List-v3.1.21.xlsx
+++ b/doc/MIG-Annex-F-MOR-List-v3.1.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehmer/Development/syncpoint.io/odin/develop/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDAB438-D60D-6049-9D17-0DCCC71E564A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6894A-9E47-2444-AA3C-1C3E76A9AD14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="6880" windowWidth="33600" windowHeight="21000" xr2:uid="{06C7698E-B7EB-F34B-83A5-94075FAFE53B}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{06C7698E-B7EB-F34B-83A5-94075FAFE53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1352">
   <si>
     <t>1.X.2</t>
   </si>
@@ -4075,13 +4075,19 @@
   </si>
   <si>
     <t>TACGRP.C2GM.OFF.LNE.AXSADV.GRD.SUPATK</t>
+  </si>
+  <si>
+    <t>NO MAPPING AVAILABLE</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4131,13 +4137,25 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4167,7 +4185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4231,6 +4249,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4547,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6EA0FD-3B04-734A-B049-07FEB6596675}">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4560,10 +4584,11 @@
     <col min="5" max="5" width="7.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.1640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="20" t="s">
         <v>247</v>
       </c>
@@ -4580,8 +4605,11 @@
       <c r="G1" s="20" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="20" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>744</v>
       </c>
@@ -4604,7 +4632,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>745</v>
       </c>
@@ -4627,7 +4655,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>746</v>
       </c>
@@ -4650,7 +4678,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>747</v>
       </c>
@@ -4673,7 +4701,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>748</v>
       </c>
@@ -4696,7 +4724,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>749</v>
       </c>
@@ -4719,7 +4747,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>750</v>
       </c>
@@ -4742,7 +4770,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>751</v>
       </c>
@@ -4765,7 +4793,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>752</v>
       </c>
@@ -4788,7 +4816,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>753</v>
       </c>
@@ -4811,7 +4839,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>754</v>
       </c>
@@ -4834,7 +4862,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1296</v>
       </c>
@@ -4857,7 +4885,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>1305</v>
       </c>
@@ -4880,7 +4908,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>755</v>
       </c>
@@ -4903,7 +4931,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>756</v>
       </c>
@@ -7498,7 +7526,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>869</v>
       </c>
@@ -7521,7 +7549,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>870</v>
       </c>
@@ -7544,7 +7572,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>871</v>
       </c>
@@ -7567,7 +7595,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>872</v>
       </c>
@@ -7587,7 +7615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>873</v>
       </c>
@@ -7610,7 +7638,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>874</v>
       </c>
@@ -7633,30 +7661,33 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="36" t="s">
         <v>875</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C135" s="12" t="s">
+      <c r="B135" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="37" t="s">
         <v>1017</v>
       </c>
-      <c r="E135" s="22" t="s">
+      <c r="E135" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="35" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" s="35" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>876</v>
       </c>
@@ -7679,7 +7710,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>877</v>
       </c>
@@ -7702,7 +7733,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>878</v>
       </c>
@@ -7725,7 +7756,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>879</v>
       </c>
@@ -7748,7 +7779,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>880</v>
       </c>
@@ -7771,7 +7802,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>881</v>
       </c>
@@ -7794,7 +7825,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>882</v>
       </c>
@@ -7817,7 +7848,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>883</v>
       </c>
@@ -7840,7 +7871,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>884</v>
       </c>
@@ -10959,11 +10990,11 @@
       </c>
       <c r="C282" s="31">
         <f>COUNTIF(B2:B279,"YES")</f>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D282" s="32">
         <f>C282/C284</f>
-        <v>0.71167883211678828</v>
+        <v>0.70802919708029199</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -10972,11 +11003,11 @@
       </c>
       <c r="C283" s="31">
         <f>COUNTIF(B2:B279,"NO")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D283" s="32">
         <f>C283/C284</f>
-        <v>0.28832116788321166</v>
+        <v>0.29197080291970801</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
